--- a/results/tables/topological.xlsx
+++ b/results/tables/topological.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>exp_name</t>
   </si>
@@ -56,6 +56,132 @@
   </si>
   <si>
     <t>PersLandscape_1</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.1373</t>
+  </si>
+  <si>
+    <t>0.1431</t>
+  </si>
+  <si>
+    <t>0.3018</t>
+  </si>
+  <si>
+    <t>0.2817</t>
+  </si>
+  <si>
+    <t>0.2049</t>
+  </si>
+  <si>
+    <t>0.2829</t>
+  </si>
+  <si>
+    <t>0.0197</t>
+  </si>
+  <si>
+    <t>0.0666</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>0.0417</t>
+  </si>
+  <si>
+    <t>0.0413</t>
+  </si>
+  <si>
+    <t>0.0795</t>
+  </si>
+  <si>
+    <t>0.0326</t>
+  </si>
+  <si>
+    <t>0.1363</t>
+  </si>
+  <si>
+    <t>0.1423</t>
+  </si>
+  <si>
+    <t>0.1476</t>
+  </si>
+  <si>
+    <t>0.1793</t>
+  </si>
+  <si>
+    <t>0.2182</t>
+  </si>
+  <si>
+    <t>0.1661</t>
+  </si>
+  <si>
+    <t>0.2789</t>
+  </si>
+  <si>
+    <t>0.0436</t>
+  </si>
+  <si>
+    <t>0.1285</t>
+  </si>
+  <si>
+    <t>0.0591</t>
+  </si>
+  <si>
+    <t>0.0999</t>
+  </si>
+  <si>
+    <t>0.1503</t>
+  </si>
+  <si>
+    <t>0.1355</t>
+  </si>
+  <si>
+    <t>0.1259</t>
+  </si>
+  <si>
+    <t>0.2892</t>
+  </si>
+  <si>
+    <t>0.3356</t>
+  </si>
+  <si>
+    <t>0.3372</t>
+  </si>
+  <si>
+    <t>0.3677</t>
+  </si>
+  <si>
+    <t>0.4104</t>
+  </si>
+  <si>
+    <t>0.4155</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.0149</t>
+  </si>
+  <si>
+    <t>0.0639</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.0499</t>
+  </si>
+  <si>
+    <t>0.0668</t>
+  </si>
+  <si>
+    <t>0.0426</t>
+  </si>
+  <si>
+    <t>0.0687</t>
   </si>
 </sst>
 </file>
@@ -463,161 +589,161 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0.1420090343460232</v>
-      </c>
-      <c r="C4">
-        <v>0.0197342363416402</v>
-      </c>
-      <c r="D4">
-        <v>0.1363429571747554</v>
-      </c>
-      <c r="E4">
-        <v>0.0436380883207158</v>
-      </c>
-      <c r="F4">
-        <v>0.2891579863465406</v>
-      </c>
-      <c r="G4">
-        <v>0.0148583581647831</v>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0.1372870144709581</v>
-      </c>
-      <c r="C5">
-        <v>0.0665958669001602</v>
-      </c>
-      <c r="D5">
-        <v>0.1423359304617089</v>
-      </c>
-      <c r="E5">
-        <v>0.1284776701181903</v>
-      </c>
-      <c r="F5">
-        <v>0.3356427030716931</v>
-      </c>
-      <c r="G5">
-        <v>0.0638717947222775</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0.1431260538636105</v>
-      </c>
-      <c r="C6">
-        <v>0.083329761566949</v>
-      </c>
-      <c r="D6">
-        <v>0.1476277740824949</v>
-      </c>
-      <c r="E6">
-        <v>0.0591135804111279</v>
-      </c>
-      <c r="F6">
-        <v>0.3371636064152856</v>
-      </c>
-      <c r="G6">
-        <v>0.0500317933631286</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0.3017721559438518</v>
-      </c>
-      <c r="C7">
-        <v>0.0416730158442645</v>
-      </c>
-      <c r="D7">
-        <v>0.1793102906773985</v>
-      </c>
-      <c r="E7">
-        <v>0.0998888141745531</v>
-      </c>
-      <c r="F7">
-        <v>0.3676508955045248</v>
-      </c>
-      <c r="G7">
-        <v>0.0498898508237427</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>0.2816902938483958</v>
-      </c>
-      <c r="C8">
-        <v>0.0413321366014697</v>
-      </c>
-      <c r="D8">
-        <v>0.2181900943711215</v>
-      </c>
-      <c r="E8">
-        <v>0.1502883777207728</v>
-      </c>
-      <c r="F8">
-        <v>0.4103706509383385</v>
-      </c>
-      <c r="G8">
-        <v>0.066810311298424</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0.2048960410258358</v>
-      </c>
-      <c r="C9">
-        <v>0.0795416849042862</v>
-      </c>
-      <c r="D9">
-        <v>0.1661202083439495</v>
-      </c>
-      <c r="E9">
-        <v>0.1355216810770249</v>
-      </c>
-      <c r="F9">
-        <v>0.4155331203134758</v>
-      </c>
-      <c r="G9">
-        <v>0.0426444996042953</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>0.2828725981798066</v>
-      </c>
-      <c r="C10">
-        <v>0.03259640509467</v>
-      </c>
-      <c r="D10">
-        <v>0.2789144770738217</v>
-      </c>
-      <c r="E10">
-        <v>0.1258576570291621</v>
-      </c>
-      <c r="F10">
-        <v>0.4269715746571834</v>
-      </c>
-      <c r="G10">
-        <v>0.0686958169780541</v>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/topological.xlsx
+++ b/results/tables/topological.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>exp_name</t>
   </si>
@@ -37,9 +37,15 @@
     <t>Sharpe</t>
   </si>
   <si>
+    <t>PersImage_1_new</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
+    <t>PersImage_2_new</t>
+  </si>
+  <si>
     <t>PersImage_2</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t>topo_features</t>
   </si>
   <si>
+    <t>topo_features_new</t>
+  </si>
+  <si>
+    <t>PersLandscape_1_new</t>
+  </si>
+  <si>
     <t>PersLandscape_2</t>
   </si>
   <si>
@@ -58,18 +70,30 @@
     <t>PersLandscape_1</t>
   </si>
   <si>
+    <t>PersLandscape_2_new</t>
+  </si>
+  <si>
+    <t>0.1431</t>
+  </si>
+  <si>
     <t>0.142</t>
   </si>
   <si>
+    <t>0.1539</t>
+  </si>
+  <si>
     <t>0.1373</t>
   </si>
   <si>
-    <t>0.1431</t>
-  </si>
-  <si>
     <t>0.3018</t>
   </si>
   <si>
+    <t>0.2458</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
     <t>0.2817</t>
   </si>
   <si>
@@ -79,9 +103,18 @@
     <t>0.2829</t>
   </si>
   <si>
+    <t>0.2414</t>
+  </si>
+  <si>
+    <t>0.1168</t>
+  </si>
+  <si>
     <t>0.0197</t>
   </si>
   <si>
+    <t>0.0932</t>
+  </si>
+  <si>
     <t>0.0666</t>
   </si>
   <si>
@@ -91,6 +124,12 @@
     <t>0.0417</t>
   </si>
   <si>
+    <t>0.0566</t>
+  </si>
+  <si>
+    <t>0.0577</t>
+  </si>
+  <si>
     <t>0.0413</t>
   </si>
   <si>
@@ -100,9 +139,18 @@
     <t>0.0326</t>
   </si>
   <si>
+    <t>0.0797</t>
+  </si>
+  <si>
+    <t>0.1338</t>
+  </si>
+  <si>
     <t>0.1363</t>
   </si>
   <si>
+    <t>0.1475</t>
+  </si>
+  <si>
     <t>0.1423</t>
   </si>
   <si>
@@ -112,6 +160,12 @@
     <t>0.1793</t>
   </si>
   <si>
+    <t>0.2586</t>
+  </si>
+  <si>
+    <t>0.2975</t>
+  </si>
+  <si>
     <t>0.2182</t>
   </si>
   <si>
@@ -121,9 +175,18 @@
     <t>0.2789</t>
   </si>
   <si>
+    <t>0.2539</t>
+  </si>
+  <si>
+    <t>0.0716</t>
+  </si>
+  <si>
     <t>0.0436</t>
   </si>
   <si>
+    <t>0.1362</t>
+  </si>
+  <si>
     <t>0.1285</t>
   </si>
   <si>
@@ -133,6 +196,12 @@
     <t>0.0999</t>
   </si>
   <si>
+    <t>0.1565</t>
+  </si>
+  <si>
+    <t>0.1405</t>
+  </si>
+  <si>
     <t>0.1503</t>
   </si>
   <si>
@@ -142,9 +211,18 @@
     <t>0.1259</t>
   </si>
   <si>
+    <t>0.1545</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
     <t>0.2892</t>
   </si>
   <si>
+    <t>0.3047</t>
+  </si>
+  <si>
     <t>0.3356</t>
   </si>
   <si>
@@ -154,6 +232,12 @@
     <t>0.3677</t>
   </si>
   <si>
+    <t>0.3851</t>
+  </si>
+  <si>
+    <t>0.4055</t>
+  </si>
+  <si>
     <t>0.4104</t>
   </si>
   <si>
@@ -163,9 +247,18 @@
     <t>0.427</t>
   </si>
   <si>
+    <t>0.4422</t>
+  </si>
+  <si>
+    <t>0.0304</t>
+  </si>
+  <si>
     <t>0.0149</t>
   </si>
   <si>
+    <t>0.0385</t>
+  </si>
+  <si>
     <t>0.0639</t>
   </si>
   <si>
@@ -175,6 +268,12 @@
     <t>0.0499</t>
   </si>
   <si>
+    <t>0.0641</t>
+  </si>
+  <si>
+    <t>0.0599</t>
+  </si>
+  <si>
     <t>0.0668</t>
   </si>
   <si>
@@ -182,6 +281,9 @@
   </si>
   <si>
     <t>0.0687</t>
+  </si>
+  <si>
+    <t>0.0911</t>
   </si>
 </sst>
 </file>
@@ -539,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,22 +692,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -613,22 +715,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -636,22 +738,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -659,22 +761,22 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -682,22 +784,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -705,22 +807,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -728,22 +830,137 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/topological.xlsx
+++ b/results/tables/topological.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>exp_name</t>
   </si>
@@ -46,30 +46,15 @@
     <t>PersImage_2_new</t>
   </si>
   <si>
-    <t>PersImage_2</t>
-  </si>
-  <si>
-    <t>PersImage_1</t>
-  </si>
-  <si>
-    <t>topo_features</t>
-  </si>
-  <si>
     <t>topo_features_new</t>
   </si>
   <si>
     <t>PersLandscape_1_new</t>
   </si>
   <si>
-    <t>PersLandscape_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ecomonic sectors </t>
   </si>
   <si>
-    <t>PersLandscape_1</t>
-  </si>
-  <si>
     <t>PersLandscape_2_new</t>
   </si>
   <si>
@@ -82,27 +67,15 @@
     <t>0.1539</t>
   </si>
   <si>
-    <t>0.1373</t>
-  </si>
-  <si>
-    <t>0.3018</t>
-  </si>
-  <si>
     <t>0.2458</t>
   </si>
   <si>
     <t>0.295</t>
   </si>
   <si>
-    <t>0.2817</t>
-  </si>
-  <si>
     <t>0.2049</t>
   </si>
   <si>
-    <t>0.2829</t>
-  </si>
-  <si>
     <t>0.2414</t>
   </si>
   <si>
@@ -115,30 +88,15 @@
     <t>0.0932</t>
   </si>
   <si>
-    <t>0.0666</t>
-  </si>
-  <si>
-    <t>0.0833</t>
-  </si>
-  <si>
-    <t>0.0417</t>
-  </si>
-  <si>
     <t>0.0566</t>
   </si>
   <si>
     <t>0.0577</t>
   </si>
   <si>
-    <t>0.0413</t>
-  </si>
-  <si>
     <t>0.0795</t>
   </si>
   <si>
-    <t>0.0326</t>
-  </si>
-  <si>
     <t>0.0797</t>
   </si>
   <si>
@@ -151,30 +109,15 @@
     <t>0.1475</t>
   </si>
   <si>
-    <t>0.1423</t>
-  </si>
-  <si>
-    <t>0.1476</t>
-  </si>
-  <si>
-    <t>0.1793</t>
-  </si>
-  <si>
     <t>0.2586</t>
   </si>
   <si>
     <t>0.2975</t>
   </si>
   <si>
-    <t>0.2182</t>
-  </si>
-  <si>
     <t>0.1661</t>
   </si>
   <si>
-    <t>0.2789</t>
-  </si>
-  <si>
     <t>0.2539</t>
   </si>
   <si>
@@ -187,30 +130,15 @@
     <t>0.1362</t>
   </si>
   <si>
-    <t>0.1285</t>
-  </si>
-  <si>
-    <t>0.0591</t>
-  </si>
-  <si>
-    <t>0.0999</t>
-  </si>
-  <si>
     <t>0.1565</t>
   </si>
   <si>
     <t>0.1405</t>
   </si>
   <si>
-    <t>0.1503</t>
-  </si>
-  <si>
     <t>0.1355</t>
   </si>
   <si>
-    <t>0.1259</t>
-  </si>
-  <si>
     <t>0.1545</t>
   </si>
   <si>
@@ -223,30 +151,15 @@
     <t>0.3047</t>
   </si>
   <si>
-    <t>0.3356</t>
-  </si>
-  <si>
-    <t>0.3372</t>
-  </si>
-  <si>
-    <t>0.3677</t>
-  </si>
-  <si>
     <t>0.3851</t>
   </si>
   <si>
     <t>0.4055</t>
   </si>
   <si>
-    <t>0.4104</t>
-  </si>
-  <si>
     <t>0.4155</t>
   </si>
   <si>
-    <t>0.427</t>
-  </si>
-  <si>
     <t>0.4422</t>
   </si>
   <si>
@@ -259,28 +172,13 @@
     <t>0.0385</t>
   </si>
   <si>
-    <t>0.0639</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.0499</t>
-  </si>
-  <si>
     <t>0.0641</t>
   </si>
   <si>
     <t>0.0599</t>
   </si>
   <si>
-    <t>0.0668</t>
-  </si>
-  <si>
     <t>0.0426</t>
-  </si>
-  <si>
-    <t>0.0687</t>
   </si>
   <si>
     <t>0.0911</t>
@@ -641,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -692,22 +590,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -715,22 +613,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -738,22 +636,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -761,22 +659,22 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -784,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -807,22 +705,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -830,137 +728,22 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
